--- a/pcr_2025_v2.xlsx
+++ b/pcr_2025_v2.xlsx
@@ -5,28 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thale\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\pesquisa-bio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1FB3B-15A6-498A-B08B-0515C1F77A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB67FF-203F-43DF-884D-0A279337C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B01432F6-1E7E-416E-BD51-E62CE791F8BB}"/>
+    <workbookView xWindow="57480" yWindow="15945" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B01432F6-1E7E-416E-BD51-E62CE791F8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="OVÁRIO" sheetId="1" r:id="rId1"/>
     <sheet name="CARCAÇA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">OVÁRIO!$X$48:$X$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">OVÁRIO!$X$40:$X$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">OVÁRIO!$X$40:$X$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">CARCAÇA!$W$1:$W$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">CARCAÇA!$W$4:$W$99</definedName>
-  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -441,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,9 +458,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,13 +472,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,9 +493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +533,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -640,7 +639,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -782,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,68 +791,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0838DB-1566-4D81-A415-98C399F49F6C}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R16" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40:X51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" customWidth="1"/>
+    <col min="15" max="15" width="24.08984375" customWidth="1"/>
+    <col min="18" max="18" width="16.1796875" customWidth="1"/>
+    <col min="19" max="19" width="14.90625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="23.88671875" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" customWidth="1"/>
+    <col min="23" max="23" width="22.36328125" customWidth="1"/>
+    <col min="24" max="24" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="H1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="15" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1">
         <f>MIN(N4:N51)</f>
         <v>0.26147471194110494</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="V1" s="15" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="V1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -895,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -948,3350 +947,3056 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="8">
         <v>16.508221687804941</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="8">
         <v>18.963343815243633</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="8">
         <v>22.58273028822066</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4">
         <f>AVERAGE(INDEX(C:C,ROW()*2-4),INDEX(C:C,ROW()*2-3))</f>
         <v>16.474963138068691</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4">
         <f>AVERAGE(INDEX(D:D,ROW()*2-4),INDEX(D:D,ROW()*2-3))</f>
         <v>19.151131837252485</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4">
         <f>AVERAGE(INDEX(E:E,ROW()*2-4),INDEX(E:E,ROW()*2-3))</f>
         <v>22.365617750343073</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4">
         <f>J4-I4</f>
         <v>2.6761686991837941</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4">
         <f>K4-I4</f>
         <v>5.8906546122743819</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4">
         <f>N4-$P$1</f>
         <v>2.4146939872426891</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4">
         <f>O4-$P$2</f>
         <v>1.8639981282607891</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="13">
         <f>2^-(S4)</f>
         <v>0.18754464989033467</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="13">
         <f>2^-(T4)</f>
         <v>0.27471391080527735</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="8">
         <v>16.441704588332442</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="8">
         <v>19.338919859261338</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="8">
         <v>22.148505212465487</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5">
         <f>AVERAGE(INDEX(C:C,ROW()*2-4),INDEX(C:C,ROW()*2-3))</f>
         <v>15.868568095416988</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5">
         <f t="shared" ref="J5:J51" si="0">AVERAGE(INDEX(D:D,ROW()*2-4),INDEX(D:D,ROW()*2-3))</f>
         <v>18.732887297614024</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5">
         <f t="shared" ref="K5:K51" si="1">AVERAGE(INDEX(E:E,ROW()*2-4),INDEX(E:E,ROW()*2-3))</f>
         <v>22.397554420269923</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5">
         <f t="shared" ref="N5:N51" si="2">J5-I5</f>
         <v>2.8643192021970361</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5">
         <f t="shared" ref="O5:O51" si="3">K5-I5</f>
         <v>6.5289863248529354</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5">
         <f t="shared" ref="S5:S51" si="4">N5-$P$1</f>
         <v>2.6028444902559311</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5">
         <f t="shared" ref="T5:T51" si="5">O5-$P$2</f>
         <v>2.5023298408393426</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="13">
         <f t="shared" ref="W5:W51" si="6">2^-(S5)</f>
         <v>0.16461360818971624</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="13">
         <f t="shared" ref="X5:X51" si="7">2^-(T5)</f>
         <v>0.1764914450052342</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="8">
         <v>15.889298887284664</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="8">
         <v>18.745306781382396</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="8">
         <v>22.262281054137638</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6">
         <f t="shared" ref="I6:I51" si="8">AVERAGE(INDEX(C:C,ROW()*2-4),INDEX(C:C,ROW()*2-3))</f>
         <v>15.705726144775547</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>19.087453334514354</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>22.374750552422242</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>3.3817271897388075</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>6.6690244076466954</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6">
         <f t="shared" si="4"/>
         <v>3.1202524777977025</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6">
         <f t="shared" si="5"/>
         <v>2.6423679236331026</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="13">
         <f t="shared" si="6"/>
         <v>0.11500332849296403</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="13">
         <f t="shared" si="7"/>
         <v>0.16016513915989833</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="8">
         <v>15.847837303549312</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="8">
         <v>18.720467813845652</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="8">
         <v>22.532827786402208</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7">
         <f t="shared" si="8"/>
         <v>16.764197942365016</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>19.19637223391139</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>23.134572857439974</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>2.4321742915463744</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>6.370374915074958</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7">
         <f t="shared" si="4"/>
         <v>2.1706995796052695</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7">
         <f t="shared" si="5"/>
         <v>2.3437184310613652</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="13">
         <f t="shared" si="6"/>
         <v>0.22210294387409985</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="13">
         <f t="shared" si="7"/>
         <v>0.19700191637165518</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="8">
         <v>15.681599061025434</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="8">
         <v>19.222017286695142</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="8">
         <v>22.333296087980663</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8">
         <f t="shared" si="8"/>
         <v>16.367487216862497</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>18.765093889856253</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>24.135528629625764</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>2.3976066729937564</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>7.7680414127632673</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8">
         <f t="shared" si="4"/>
         <v>2.1361319610526515</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8">
         <f t="shared" si="5"/>
         <v>3.7413849287496745</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22" t="s">
+      <c r="V8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8">
         <f t="shared" si="6"/>
         <v>0.22748889701594183</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8">
         <f t="shared" si="7"/>
         <v>7.4770607824100721E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="8">
         <v>15.729853228525659</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="8">
         <v>18.952889382333566</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="8">
         <v>22.41620501686382</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9">
         <f t="shared" si="8"/>
         <v>15.504823683001637</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>18.621977387701754</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>23.522169160686119</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9">
         <f t="shared" si="2"/>
         <v>3.117153704700117</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>8.017345477684481</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9">
         <f t="shared" si="4"/>
         <v>2.855678992759012</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9">
         <f t="shared" si="5"/>
         <v>3.9906889936708883</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9">
         <f t="shared" si="6"/>
         <v>0.13815129657112413</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9">
         <f t="shared" si="7"/>
         <v>6.290467306623182E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="8">
         <v>16.770300494042608</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="8">
         <v>19.122232378693788</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="8">
         <v>22.987068617968959</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10">
         <f t="shared" si="8"/>
         <v>15.475629705907288</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>19.202751884437575</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>23.753623365694903</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>3.727122178530287</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>8.2779936597876151</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10">
         <f t="shared" si="4"/>
         <v>3.4656474665891821</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10">
         <f t="shared" si="5"/>
         <v>4.2513371757740224</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10">
         <f t="shared" si="6"/>
         <v>9.0518251888827728E-2</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10">
         <f t="shared" si="7"/>
         <v>5.2507336462882324E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="8">
         <v>16.758095390687423</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="8">
         <v>19.270512089128992</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="8">
         <v>23.282077096910989</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11">
         <f t="shared" si="8"/>
         <v>16.112176218851204</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>18.854138297846635</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>22.637880493192259</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>2.7419620789954315</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>6.5257042743410558</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11">
         <f t="shared" si="4"/>
         <v>2.4804873670543266</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11">
         <f t="shared" si="5"/>
         <v>2.499047790327463</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22" t="s">
+      <c r="V11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11">
         <f t="shared" si="6"/>
         <v>0.17918386440319198</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11">
         <f t="shared" si="7"/>
         <v>0.17689341022030064</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="8">
         <v>16.34786166726056</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="8">
         <v>18.72199957568062</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="8">
         <v>24.009455432995317</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12">
         <f t="shared" si="8"/>
         <v>15.625676415036365</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>18.048176911805839</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>21.272967886009109</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>2.4225004967694748</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>5.6472914709727444</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12">
         <f t="shared" si="4"/>
         <v>2.1610257848283698</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12">
         <f t="shared" si="5"/>
         <v>1.6206349869591516</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="13">
         <f t="shared" si="6"/>
         <v>0.22359722912797125</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="13">
         <f t="shared" si="7"/>
         <v>0.32519230240578606</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="8">
         <v>16.387112766464433</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="8">
         <v>18.808188204031886</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="8">
         <v>24.261601826256211</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13">
         <f t="shared" si="8"/>
         <v>17.329291373131333</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>22.904749818344481</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>27.118986058378511</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>5.5754584452131475</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>9.7896946852471771</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13">
         <f t="shared" si="4"/>
         <v>5.3139837332720425</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13">
         <f t="shared" si="5"/>
         <v>5.7630382012335843</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="13">
         <f t="shared" si="6"/>
         <v>2.513804502774283E-2</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="13">
         <f t="shared" si="7"/>
         <v>1.8414190649823393E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="8">
         <v>15.431312502347762</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="8">
         <v>18.576029814014611</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="8">
         <v>23.380799044717769</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14">
         <f t="shared" si="8"/>
         <v>14.899434438879792</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>18.175028712834202</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>20.14183710066337</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>3.2755942739544093</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>5.2424026617835775</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14">
         <f t="shared" si="4"/>
         <v>3.0141195620133043</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14">
         <f t="shared" si="5"/>
         <v>1.2157461777699847</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="13">
         <f t="shared" si="6"/>
         <v>0.12378260019836629</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="13">
         <f t="shared" si="7"/>
         <v>0.43055033688060718</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="8">
         <v>15.578334863655513</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="8">
         <v>18.667924961388898</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="8">
         <v>23.663539276654468</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15">
         <f t="shared" si="8"/>
         <v>15.571138411281281</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>18.595043363076115</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>22.598284365096543</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15">
         <f t="shared" si="2"/>
         <v>3.0239049517948349</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>7.0271459538152623</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15">
         <f t="shared" si="4"/>
         <v>2.7624302398537299</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15">
         <f t="shared" si="5"/>
         <v>3.0004894698016695</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="13">
         <f t="shared" si="6"/>
         <v>0.14737561718958503</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="13">
         <f t="shared" si="7"/>
         <v>0.12495759786676586</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="8">
         <v>15.58379234665086</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="8">
         <v>19.708131195413067</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="8">
         <v>23.855534366957897</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16">
         <f t="shared" si="8"/>
         <v>15.709442867064613</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>20.682377127164578</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>23.174753767141507</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16">
         <f t="shared" si="2"/>
         <v>4.9729342600999651</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>7.4653109000768936</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16">
         <f t="shared" si="4"/>
         <v>4.7114595481588601</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16">
         <f t="shared" si="5"/>
         <v>3.4386544160633008</v>
       </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W16">
         <f t="shared" si="6"/>
         <v>3.8168874386978725E-2</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X16">
         <f t="shared" si="7"/>
         <v>9.2227805719477488E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="8">
         <v>15.367467065163716</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="8">
         <v>18.697372573462083</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="8">
         <v>23.651712364431908</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17">
         <f t="shared" si="8"/>
         <v>14.969419562612735</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>19.866902184357581</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>22.228481894190377</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17">
         <f t="shared" si="2"/>
         <v>4.8974826217448459</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>7.2590623315776419</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17">
         <f t="shared" si="4"/>
         <v>4.636007909803741</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17">
         <f t="shared" si="5"/>
         <v>3.2324058475640491</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22" t="s">
+      <c r="V17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17">
         <f t="shared" si="6"/>
         <v>4.0218193474953541E-2</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17">
         <f t="shared" si="7"/>
         <v>0.10640177715127512</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="8">
         <v>16.093571428897079</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="8">
         <v>18.808372575529212</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="8">
         <v>22.490542104391224</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18">
         <f t="shared" si="8"/>
         <v>15.133902011838458</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>17.837980179443996</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>20.03696592487368</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18">
         <f t="shared" si="2"/>
         <v>2.7040781676055374</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18">
         <f t="shared" si="3"/>
         <v>4.903063913035222</v>
       </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18">
         <f t="shared" si="4"/>
         <v>2.4426034556644325</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18">
         <f t="shared" si="5"/>
         <v>0.87640742902162927</v>
       </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22" t="s">
+      <c r="V18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18">
         <f t="shared" si="6"/>
         <v>0.18395139782509481</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18">
         <f t="shared" si="7"/>
         <v>0.54472220032423813</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="8">
         <v>16.130781008805329</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="8">
         <v>18.899904020164058</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="8">
         <v>22.785218881993295</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19">
         <f t="shared" si="8"/>
         <v>16.876696240329544</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>20.664454232033883</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>24.637469844775687</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19">
         <f t="shared" si="2"/>
         <v>3.7877579917043391</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19">
         <f t="shared" si="3"/>
         <v>7.7607736044461433</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19">
         <f t="shared" si="4"/>
         <v>3.5262832797632342</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19">
         <f t="shared" si="5"/>
         <v>3.7341171204325505</v>
       </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22" t="s">
+      <c r="V19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19">
         <f t="shared" si="6"/>
         <v>8.6792652178231663E-2</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19">
         <f t="shared" si="7"/>
         <v>7.5148227147846275E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="8">
         <v>15.579110786499552</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="8">
         <v>17.725348655135043</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="8">
         <v>20.941016849906212</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20">
         <f t="shared" si="8"/>
         <v>14.926953774930173</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>18.330517195196187</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>23.319411670918928</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20">
         <f t="shared" si="2"/>
         <v>3.4035634202660141</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20">
         <f t="shared" si="3"/>
         <v>8.3924578959887555</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20">
         <f t="shared" si="4"/>
         <v>3.1420887083249092</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20">
         <f t="shared" si="5"/>
         <v>4.3658014119751627</v>
       </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="13">
         <f t="shared" si="6"/>
         <v>0.11327577697676448</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="13">
         <f t="shared" si="7"/>
         <v>4.8502354317149665E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="8">
         <v>15.672242043573178</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="8">
         <v>18.371005168476636</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="8">
         <v>21.604918922112006</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21">
         <f t="shared" si="8"/>
         <v>15.600604027233139</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>18.282626355614433</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>23.103852762435658</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21">
         <f t="shared" si="2"/>
         <v>2.6820223283812936</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21">
         <f t="shared" si="3"/>
         <v>7.5032487352025186</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21">
         <f t="shared" si="4"/>
         <v>2.4205476164401887</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21">
         <f t="shared" si="5"/>
         <v>3.4765922511889258</v>
       </c>
-      <c r="U21" s="21"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="13">
         <f t="shared" si="6"/>
         <v>0.18678524290486995</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="13">
         <f t="shared" si="7"/>
         <v>8.9834147265921857E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="8">
         <v>17.362096334169109</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="8">
         <v>22.925395715004186</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="8">
         <v>26.980755407667779</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22">
         <f t="shared" si="8"/>
         <v>15.043139719786724</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>17.558959845105367</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>22.623531992988571</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22">
         <f t="shared" si="2"/>
         <v>2.5158201253186423</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22">
         <f t="shared" si="3"/>
         <v>7.5803922732018467</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22">
         <f t="shared" si="4"/>
         <v>2.2543454133775374</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22">
         <f t="shared" si="5"/>
         <v>3.5537357891882539</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="13">
         <f t="shared" si="6"/>
         <v>0.20959185913571871</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="13">
         <f t="shared" si="7"/>
         <v>8.5156721081736012E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="19" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="8">
         <v>17.296486412093557</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="8">
         <v>22.884103921684776</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="8">
         <v>27.257216709089242</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23">
         <f t="shared" si="8"/>
         <v>15.398897359723792</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>17.583945904573064</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>23.122105839312159</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23">
         <f t="shared" si="2"/>
         <v>2.1850485448492716</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23">
         <f t="shared" si="3"/>
         <v>7.7232084795883669</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23">
         <f t="shared" si="4"/>
         <v>1.9235738329081666</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23">
         <f t="shared" si="5"/>
         <v>3.6965519955747741</v>
       </c>
-      <c r="U23" s="21"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="13">
         <f t="shared" si="6"/>
         <v>0.26360071105526406</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="13">
         <f t="shared" si="7"/>
         <v>7.7130646005817469E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="8">
         <v>14.879238811135892</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="8">
         <v>18.148007913623125</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="8">
         <v>20.085962056863046</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24">
         <f t="shared" si="8"/>
         <v>14.809027230351973</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>16.195417620767191</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>19.627738758340936</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24">
         <f t="shared" si="2"/>
         <v>1.3863903904152188</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24">
         <f t="shared" si="3"/>
         <v>4.8187115279889632</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22" t="s">
+      <c r="R24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24">
         <f t="shared" si="4"/>
         <v>1.1249156784741139</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24">
         <f t="shared" si="5"/>
         <v>0.79205504397537041</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22" t="s">
+      <c r="V24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24">
         <f t="shared" si="6"/>
         <v>0.45852882055765259</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24">
         <f t="shared" si="7"/>
         <v>0.57752085737032288</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="8">
         <v>14.919630066623693</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="8">
         <v>18.202049512045278</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="8">
         <v>20.197712144463694</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25">
         <f t="shared" si="8"/>
         <v>14.897271277119811</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>17.374635561833756</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>19.850292380605186</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25">
         <f t="shared" si="2"/>
         <v>2.4773642847139445</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25">
         <f t="shared" si="3"/>
         <v>4.9530211034853746</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22" t="s">
+      <c r="R25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25">
         <f t="shared" si="4"/>
         <v>2.2158895727728396</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25">
         <f t="shared" si="5"/>
         <v>0.92636461947178184</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25">
         <f t="shared" si="6"/>
         <v>0.2152537724775701</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25">
         <f t="shared" si="7"/>
         <v>0.52618257581671524</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8">
         <v>15.539700225511321</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="8">
         <v>18.593529692170399</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="8">
         <v>22.430307003185931</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26">
         <f t="shared" si="8"/>
         <v>17.600597056348722</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>21.475267888420941</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>24.555843691046125</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26">
         <f t="shared" si="2"/>
         <v>3.8746708320722192</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26">
         <f t="shared" si="3"/>
         <v>6.9552466346974029</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22" t="s">
+      <c r="R26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26">
         <f t="shared" si="4"/>
         <v>3.6131961201311142</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26">
         <f t="shared" si="5"/>
         <v>2.9285901506838101</v>
       </c>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22" t="s">
+      <c r="V26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="W26" s="21">
+      <c r="W26">
         <f t="shared" si="6"/>
         <v>8.1718349726511624E-2</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26">
         <f t="shared" si="7"/>
         <v>0.13134287536053491</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="20">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8">
         <v>15.60257659705124</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="8">
         <v>18.596557033981831</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="8">
         <v>22.766261727007155</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27">
         <f t="shared" si="8"/>
         <v>14.662879216243052</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>16.473013275228116</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>20.192902610749559</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27">
         <f t="shared" si="2"/>
         <v>1.8101340589850636</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27">
         <f t="shared" si="3"/>
         <v>5.5300233945065074</v>
       </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="22" t="s">
+      <c r="R27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27">
         <f t="shared" si="4"/>
         <v>1.5486593470439587</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27">
         <f t="shared" si="5"/>
         <v>1.5033669104929146</v>
       </c>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22" t="s">
+      <c r="V27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W27">
         <f t="shared" si="6"/>
         <v>0.34182756668320524</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27">
         <f t="shared" si="7"/>
         <v>0.35272924229410674</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="8">
         <v>15.686274338896549</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="8">
         <v>20.621453129135062</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="8">
         <v>23.171516326588446</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28">
         <f t="shared" si="8"/>
         <v>15.479770029816457</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>17.174600105951999</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>22.131137487128786</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28">
         <f t="shared" si="2"/>
         <v>1.6948300761355419</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28">
         <f t="shared" si="3"/>
         <v>6.6513674573123289</v>
       </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="22" t="s">
+      <c r="R28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28">
         <f t="shared" si="4"/>
         <v>1.433355364194437</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28">
         <f t="shared" si="5"/>
         <v>2.6247109732987361</v>
       </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="13">
         <f t="shared" si="6"/>
         <v>0.37026873379190894</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="13">
         <f t="shared" si="7"/>
         <v>0.16213742337198347</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="8">
         <v>15.732611395232677</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="8">
         <v>20.743301125194094</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="8">
         <v>23.177991207694568</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29">
         <f t="shared" si="8"/>
         <v>16.155699057135784</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>17.555705902950489</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>22.726405770341376</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29">
         <f t="shared" si="2"/>
         <v>1.4000068458147048</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29">
         <f t="shared" si="3"/>
         <v>6.5707067132055919</v>
       </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="22" t="s">
+      <c r="R29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29">
         <f t="shared" si="4"/>
         <v>1.1385321338735999</v>
       </c>
-      <c r="T29" s="21">
+      <c r="T29">
         <f t="shared" si="5"/>
         <v>2.5440502291919991</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="13">
         <f t="shared" si="6"/>
         <v>0.45422148904611503</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="13">
         <f t="shared" si="7"/>
         <v>0.17146069135626935</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="8">
         <v>14.953066038538875</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="8">
         <v>19.837884278320871</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="8">
         <v>22.267476421943407</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30">
         <f t="shared" si="8"/>
         <v>15.558625362627689</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>17.635256618472308</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>22.605650309793585</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30">
         <f t="shared" si="2"/>
         <v>2.0766312558446192</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30">
         <f t="shared" si="3"/>
         <v>7.0470249471658963</v>
       </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="22" t="s">
+      <c r="R30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30">
         <f t="shared" si="4"/>
         <v>1.8151565439035142</v>
       </c>
-      <c r="T30" s="21">
+      <c r="T30">
         <f t="shared" si="5"/>
         <v>3.0203684631523036</v>
       </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="13">
         <f t="shared" si="6"/>
         <v>0.28417340655786366</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="13">
         <f t="shared" si="7"/>
         <v>0.12324760670212707</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="8">
         <v>14.985773086686596</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="8">
         <v>19.895920090394291</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="8">
         <v>22.189487366437348</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31">
         <f t="shared" si="8"/>
         <v>15.560444745068935</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>17.508208102493949</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>23.202296285067032</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31">
         <f t="shared" si="2"/>
         <v>1.9477633574250142</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31">
         <f t="shared" si="3"/>
         <v>7.6418515399980969</v>
       </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22" t="s">
+      <c r="R31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31">
         <f t="shared" si="4"/>
         <v>1.6862886454839092</v>
       </c>
-      <c r="T31" s="21">
+      <c r="T31">
         <f t="shared" si="5"/>
         <v>3.6151950559845041</v>
       </c>
-      <c r="U31" s="21"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="13">
         <f t="shared" si="6"/>
         <v>0.31072524302530807</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="13">
         <f t="shared" si="7"/>
         <v>8.1605202719277056E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="8">
         <v>15.176791424854812</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="8">
         <v>17.87113432916604</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="8">
         <v>19.935844576361191</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32">
         <f t="shared" si="8"/>
         <v>22.944836938806578</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>18.275586279546641</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>22.417062984902159</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="22" t="s">
+      <c r="R32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="22" t="s">
+      <c r="V32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="19" t="s">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="8">
         <v>15.091012598822104</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="8">
         <v>17.804826029721951</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="8">
         <v>20.138087273386169</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33">
         <f t="shared" si="8"/>
         <v>15.052237962780344</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>15.992530708199519</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>21.862158898238683</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33">
         <f t="shared" si="2"/>
         <v>0.94029274541917474</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33">
         <f t="shared" si="3"/>
         <v>6.8099209354583383</v>
       </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="22" t="s">
+      <c r="R33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33">
         <f t="shared" si="4"/>
         <v>0.67881803347806979</v>
       </c>
-      <c r="T33" s="21">
+      <c r="T33">
         <f t="shared" si="5"/>
         <v>2.7832644514447455</v>
       </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22" t="s">
+      <c r="V33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W33" s="21">
+      <c r="W33">
         <f t="shared" si="6"/>
         <v>0.62467684808751256</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33">
         <f t="shared" si="7"/>
         <v>0.14526263381028359</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="8">
         <v>16.884522662647448</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="8">
         <v>19.475265864883319</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="8">
         <v>24.694193468680417</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34">
         <f t="shared" si="8"/>
         <v>14.94715288078776</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>16.290256892715053</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>21.824322431220317</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34">
         <f t="shared" si="2"/>
         <v>1.3431040119272932</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34">
         <f t="shared" si="3"/>
         <v>6.8771695504325567</v>
       </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="22" t="s">
+      <c r="R34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34">
         <f t="shared" si="4"/>
         <v>1.0816292999861883</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34">
         <f t="shared" si="5"/>
         <v>2.850513066418964</v>
       </c>
-      <c r="U34" s="21"/>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34">
         <f t="shared" si="6"/>
         <v>0.47249491231365737</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34">
         <f t="shared" si="7"/>
         <v>0.13864686817905109</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="8">
         <v>16.868869818011639</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="8">
         <v>21.85364259918445</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="8">
         <v>24.580746220870957</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35">
         <f t="shared" si="8"/>
         <v>15.068593431998812</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>15.861854865521765</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>21.37369908569849</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35">
         <f t="shared" si="2"/>
         <v>0.79326143352295375</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35">
         <f t="shared" si="3"/>
         <v>6.3051056536996786</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35">
         <f t="shared" si="4"/>
         <v>0.53178672158184881</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35">
         <f t="shared" si="5"/>
         <v>2.2784491696860858</v>
       </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22" t="s">
+      <c r="V35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W35" s="21">
+      <c r="W35">
         <f t="shared" si="6"/>
         <v>0.69169756290442852</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35">
         <f t="shared" si="7"/>
         <v>0.20611920386407942</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="8">
         <v>14.897647626341197</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="8">
         <v>18.384564940974151</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="8">
         <v>23.299597680954058</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36">
         <f t="shared" si="8"/>
         <v>15.393679983461912</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>16.233389779445698</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>22.627853807207661</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36">
         <f t="shared" si="2"/>
         <v>0.83970979598378648</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36">
         <f t="shared" si="3"/>
         <v>7.2341738237457491</v>
       </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="22" t="s">
+      <c r="R36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36">
         <f t="shared" si="4"/>
         <v>0.57823508404268154</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36">
         <f t="shared" si="5"/>
         <v>3.2075173397321564</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="13">
         <f t="shared" si="6"/>
         <v>0.66978265268395509</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="13">
         <f t="shared" si="7"/>
         <v>0.10825328126603873</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="8">
         <v>14.956259923519148</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="8">
         <v>18.276469449418222</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="8">
         <v>23.339225660883798</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37">
         <f t="shared" si="8"/>
         <v>14.675054021882154</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>15.673526021569948</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>20.404240401569179</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37">
         <f t="shared" si="2"/>
         <v>0.99847199968779421</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37">
         <f t="shared" si="3"/>
         <v>5.7291863796870253</v>
       </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="22" t="s">
+      <c r="R37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37">
         <f t="shared" si="4"/>
         <v>0.73699728774668927</v>
       </c>
-      <c r="T37" s="21">
+      <c r="T37">
         <f t="shared" si="5"/>
         <v>1.7025298956734325</v>
       </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="13">
         <f t="shared" si="6"/>
         <v>0.59998681915520879</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X37" s="13">
         <f t="shared" si="7"/>
         <v>0.30724684564357191</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="19" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="8">
         <v>15.591994166527176</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="8">
         <v>18.231383060476546</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="8">
         <v>23.143455834303673</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38">
         <f t="shared" si="8"/>
         <v>16.36814855754924</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>17.499053134629285</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>22.516727023165942</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38">
         <f t="shared" si="2"/>
         <v>1.1309045770800452</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38">
         <f t="shared" si="3"/>
         <v>6.1485784656167013</v>
       </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="22" t="s">
+      <c r="R38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38">
         <f t="shared" si="4"/>
         <v>0.86942986513894027</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T38">
         <f t="shared" si="5"/>
         <v>2.1219219816031085</v>
       </c>
-      <c r="U38" s="21"/>
-      <c r="V38" s="17" t="s">
+      <c r="V38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W38" s="18">
+      <c r="W38" s="13">
         <f t="shared" si="6"/>
         <v>0.54736311888651257</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="13">
         <f t="shared" si="7"/>
         <v>0.22974064450167125</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="8">
         <v>15.609213887939102</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="8">
         <v>18.33386965075232</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="8">
         <v>23.064249690567642</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39">
         <f t="shared" si="8"/>
         <v>15.185419410926151</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>15.79908898994116</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>19.943200880121697</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39">
         <f t="shared" si="2"/>
         <v>0.61366957901500818</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39">
         <f t="shared" si="3"/>
         <v>4.757781469195546</v>
       </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="22" t="s">
+      <c r="R39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39">
         <f t="shared" si="4"/>
         <v>0.35219486707390324</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T39">
         <f t="shared" si="5"/>
         <v>0.73112498518195324</v>
       </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="17" t="s">
+      <c r="V39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W39" s="18">
+      <c r="W39" s="13">
         <f t="shared" si="6"/>
         <v>0.7833913659066708</v>
       </c>
-      <c r="X39" s="18">
+      <c r="X39" s="13">
         <f t="shared" si="7"/>
         <v>0.60243396449876063</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="8">
         <v>15.139970955426659</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="8">
         <v>17.533252046243852</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="8">
         <v>22.847876111453402</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40">
         <f t="shared" si="8"/>
         <v>16.320571590895995</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>18.878154939583318</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>22.907933138419427</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40">
         <f t="shared" si="2"/>
         <v>2.5575833486873236</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40">
         <f t="shared" si="3"/>
         <v>6.5873615475234324</v>
       </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="22" t="s">
+      <c r="R40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40">
         <f t="shared" si="4"/>
         <v>2.2961086367462187</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40">
         <f t="shared" si="5"/>
         <v>2.5607050635098396</v>
       </c>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22" t="s">
+      <c r="V40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W40">
         <f t="shared" si="6"/>
         <v>0.20361155798455649</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40">
         <f t="shared" si="7"/>
         <v>0.1694926874436872</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="8">
         <v>14.94630848414679</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="8">
         <v>17.584667643966881</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="8">
         <v>22.39918787452374</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41">
         <f t="shared" si="8"/>
         <v>15.427824639067012</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>17.402437445013149</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>21.503038467992297</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41">
         <f t="shared" si="2"/>
         <v>1.974612805946137</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41">
         <f t="shared" si="3"/>
         <v>6.0752138289252855</v>
       </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="22" t="s">
+      <c r="R41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41">
         <f t="shared" si="4"/>
         <v>1.713138094005032</v>
       </c>
-      <c r="T41" s="21">
+      <c r="T41">
         <f t="shared" si="5"/>
         <v>2.0485573449116927</v>
       </c>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22" t="s">
+      <c r="V41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W41" s="21">
+      <c r="W41">
         <f t="shared" si="6"/>
         <v>0.3049959321217437</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41">
         <f t="shared" si="7"/>
         <v>0.24172568040162712</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="8">
         <v>15.385253688558983</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="8">
         <v>17.660453522163131</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="8">
         <v>22.971593981756264</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42">
         <f t="shared" si="8"/>
         <v>16.56728695214861</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>19.219934320045553</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>22.452731532340387</v>
       </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22" t="s">
+      <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42">
         <f t="shared" si="2"/>
         <v>2.6526473678969431</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42">
         <f t="shared" si="3"/>
         <v>5.885444580191777</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="22" t="s">
+      <c r="R42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42">
         <f t="shared" si="4"/>
         <v>2.3911726559558382</v>
       </c>
-      <c r="T42" s="21">
+      <c r="T42">
         <f t="shared" si="5"/>
         <v>1.8587880961781842</v>
       </c>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22" t="s">
+      <c r="V42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W42" s="21">
+      <c r="W42">
         <f t="shared" si="6"/>
         <v>0.19062739177022581</v>
       </c>
-      <c r="X42" s="21">
+      <c r="X42">
         <f t="shared" si="7"/>
         <v>0.27570778390058442</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="19" t="s">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="8">
         <v>15.412541030888601</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="8">
         <v>17.507438286982996</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="8">
         <v>23.272617696868053</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43">
         <f t="shared" si="8"/>
         <v>15.695150544811643</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>17.790109800111022</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>21.823974367121014</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="22" t="s">
+      <c r="M43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43">
         <f t="shared" si="2"/>
         <v>2.0949592552993792</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43">
         <f t="shared" si="3"/>
         <v>6.1288238223093714</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="22" t="s">
+      <c r="R43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S43" s="21">
+      <c r="S43">
         <f t="shared" si="4"/>
         <v>1.8334845433582743</v>
       </c>
-      <c r="T43" s="21">
+      <c r="T43">
         <f t="shared" si="5"/>
         <v>2.1021673382957786</v>
       </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="22" t="s">
+      <c r="V43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W43" s="21">
+      <c r="W43">
         <f t="shared" si="6"/>
         <v>0.28058610208160917</v>
       </c>
-      <c r="X43" s="21">
+      <c r="X43">
         <f t="shared" si="7"/>
         <v>0.23290809073413235</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="8">
         <v>14.762661919482952</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="8">
         <v>16.254838750085156</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="8">
         <v>19.664575354945143</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44">
         <f t="shared" si="8"/>
         <v>16.116611150599951</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>17.28227381264924</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>22.033715783252582</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44">
         <f t="shared" si="2"/>
         <v>1.1656626620492894</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44">
         <f t="shared" si="3"/>
         <v>5.9171046326526309</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="22" t="s">
+      <c r="R44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44">
         <f t="shared" si="4"/>
         <v>0.90418795010818442</v>
       </c>
-      <c r="T44" s="21">
+      <c r="T44">
         <f t="shared" si="5"/>
         <v>1.8904481486390381</v>
       </c>
-      <c r="U44" s="21"/>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="18">
+      <c r="W44" s="13">
         <f t="shared" si="6"/>
         <v>0.53433337967442451</v>
       </c>
-      <c r="X44" s="18">
+      <c r="X44" s="13">
         <f t="shared" si="7"/>
         <v>0.26972326117506185</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="8">
         <v>14.855392541220994</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="8">
         <v>16.135996491449227</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="8">
         <v>19.590902161736729</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45">
         <f t="shared" si="8"/>
         <v>15.499550484451593</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>17.573446790371335</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>22.174895121361129</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45">
         <f t="shared" si="2"/>
         <v>2.0738963059197424</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45">
         <f t="shared" si="3"/>
         <v>6.6753446369095357</v>
       </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="22" t="s">
+      <c r="R45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45">
         <f t="shared" si="4"/>
         <v>1.8124215939786374</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45">
         <f t="shared" si="5"/>
         <v>2.6486881528959429</v>
       </c>
-      <c r="U45" s="21"/>
-      <c r="V45" s="17" t="s">
+      <c r="V45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="13">
         <f t="shared" si="6"/>
         <v>0.28471263152123338</v>
       </c>
-      <c r="X45" s="18">
+      <c r="X45" s="13">
         <f t="shared" si="7"/>
         <v>0.15946501454497977</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="8">
         <v>14.79370728128087</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="8">
         <v>17.346219504922601</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="8">
         <v>19.804274542851687</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46">
         <f t="shared" si="8"/>
         <v>16.796191751961608</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>18.122771933803609</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>22.895029802034784</v>
       </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22" t="s">
+      <c r="M46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46">
         <f t="shared" si="2"/>
         <v>1.3265801818420009</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46">
         <f t="shared" si="3"/>
         <v>6.0988380500731765</v>
       </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="22" t="s">
+      <c r="R46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46">
         <f t="shared" si="4"/>
         <v>1.0651054699008959</v>
       </c>
-      <c r="T46" s="21">
+      <c r="T46">
         <f t="shared" si="5"/>
         <v>2.0721815660595837</v>
       </c>
-      <c r="U46" s="21"/>
-      <c r="V46" s="17" t="s">
+      <c r="V46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="18">
+      <c r="W46" s="13">
         <f t="shared" si="6"/>
         <v>0.47793771732631324</v>
       </c>
-      <c r="X46" s="18">
+      <c r="X46" s="13">
         <f t="shared" si="7"/>
         <v>0.23779963963885767</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="8">
         <v>15.000835272958753</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="8">
         <v>17.403051618744911</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="8">
         <v>19.896310218358686</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47">
         <f t="shared" si="8"/>
         <v>15.920857782832648</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>17.527899408908706</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>21.93945416850551</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47">
         <f t="shared" si="2"/>
         <v>1.6070416260760574</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47">
         <f t="shared" si="3"/>
         <v>6.0185963856728613</v>
       </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="22" t="s">
+      <c r="R47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="21">
+      <c r="S47">
         <f t="shared" si="4"/>
         <v>1.3455669141349524</v>
       </c>
-      <c r="T47" s="21">
+      <c r="T47">
         <f t="shared" si="5"/>
         <v>1.9919399016592685</v>
       </c>
-      <c r="U47" s="21"/>
-      <c r="V47" s="17" t="s">
+      <c r="V47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="18">
+      <c r="W47" s="13">
         <f t="shared" si="6"/>
         <v>0.39349933039629365</v>
       </c>
-      <c r="X47" s="18">
+      <c r="X47" s="13">
         <f t="shared" si="7"/>
         <v>0.25140061747586606</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="19" t="s">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="8">
         <v>17.451008729559781</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="8">
         <v>21.35351965914321</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="8">
         <v>24.64117416557616</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48">
         <f t="shared" si="8"/>
         <v>17.049897669725979</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>20.126903964392724</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>23.106342044772084</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="22" t="s">
+      <c r="M48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48">
         <f t="shared" si="2"/>
         <v>3.0770062946667451</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48">
         <f t="shared" si="3"/>
         <v>6.0564443750461052</v>
       </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="22" t="s">
+      <c r="R48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="S48" s="21">
+      <c r="S48">
         <f t="shared" si="4"/>
         <v>2.8155315827256402</v>
       </c>
-      <c r="T48" s="21">
+      <c r="T48">
         <f t="shared" si="5"/>
         <v>2.0297878910325124</v>
       </c>
-      <c r="U48" s="21"/>
-      <c r="V48" s="22" t="s">
+      <c r="V48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W48" s="21">
+      <c r="W48">
         <f t="shared" si="6"/>
         <v>0.14204977163182236</v>
       </c>
-      <c r="X48" s="21">
+      <c r="X48">
         <f t="shared" si="7"/>
         <v>0.24489107630539053</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="8">
         <v>17.750185383137662</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="8">
         <v>21.597016117698672</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="8">
         <v>24.470513216516089</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49">
         <f t="shared" si="8"/>
         <v>15.788967076607282</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>16.670459255987495</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49">
         <f t="shared" si="1"/>
         <v>20.523611672601099</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N49">
         <f t="shared" si="2"/>
         <v>0.88149217938021351</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49">
         <f t="shared" si="3"/>
         <v>4.7346445959938173</v>
       </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="22" t="s">
+      <c r="R49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="21">
+      <c r="S49">
         <f t="shared" si="4"/>
         <v>0.62001746743910857</v>
       </c>
-      <c r="T49" s="21">
+      <c r="T49">
         <f t="shared" si="5"/>
         <v>0.70798811198022449</v>
       </c>
-      <c r="U49" s="21"/>
-      <c r="V49" s="22" t="s">
+      <c r="V49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="21">
+      <c r="W49">
         <f t="shared" si="6"/>
         <v>0.65066304976638634</v>
       </c>
-      <c r="X49" s="21">
+      <c r="X49">
         <f t="shared" si="7"/>
         <v>0.61217324057704947</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="19" t="s">
+    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="8">
         <v>14.513153864195633</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="8">
         <v>16.584907337506721</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="8">
         <v>20.230276787834889</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50">
         <f t="shared" si="8"/>
         <v>15.525247699533084</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50">
         <f t="shared" si="0"/>
         <v>16.531589312570944</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>21.144673340998228</v>
       </c>
-      <c r="L50" s="21"/>
-      <c r="M50" s="23" t="s">
+      <c r="M50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50">
         <f t="shared" si="2"/>
         <v>1.0063416130378595</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50">
         <f t="shared" si="3"/>
         <v>5.6194256414651438</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="23" t="s">
+      <c r="R50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S50">
         <f t="shared" si="4"/>
         <v>0.74486690109675457</v>
       </c>
-      <c r="T50" s="21">
+      <c r="T50">
         <f t="shared" si="5"/>
         <v>1.592769157451551</v>
       </c>
-      <c r="U50" s="21"/>
-      <c r="V50" s="23" t="s">
+      <c r="V50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W50" s="21">
+      <c r="W50">
         <f t="shared" si="6"/>
         <v>0.5967229209202749</v>
       </c>
-      <c r="X50" s="21">
+      <c r="X50">
         <f t="shared" si="7"/>
         <v>0.33153448395466023</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="8">
         <v>14.812604568290471</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="8">
         <v>16.361119212949511</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="8">
         <v>20.15552843366423</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51">
         <f t="shared" si="8"/>
         <v>16.357945397420245</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51">
         <f t="shared" si="0"/>
         <v>16.61942010936135</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51">
         <f t="shared" si="1"/>
         <v>20.384601881433838</v>
       </c>
-      <c r="L51" s="21"/>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N51">
         <f t="shared" si="2"/>
         <v>0.26147471194110494</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51">
         <f t="shared" si="3"/>
         <v>4.0266564840135928</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="23" t="s">
+      <c r="R51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S51" s="21">
+      <c r="S51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T51" s="21">
+      <c r="T51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U51" s="21"/>
-      <c r="V51" s="23" t="s">
+      <c r="V51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W51" s="21">
+      <c r="W51">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X51" s="21">
+      <c r="X51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4307,8 +4012,8 @@
         <v>22.150559719072582</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
       <c r="B53" s="6" t="s">
         <v>31</v>
       </c>
@@ -4322,8 +4027,8 @@
         <v>22.11171525518499</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4339,8 +4044,8 @@
         <v>22.552714345032491</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
       <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
@@ -4354,8 +4059,8 @@
         <v>22.900097195650261</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -4371,8 +4076,8 @@
         <v>22.532965204773674</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
@@ -4386,8 +4091,8 @@
         <v>22.678335414813496</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -4403,8 +4108,8 @@
         <v>23.239269855855504</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
       <c r="B59" s="6" t="s">
         <v>34</v>
       </c>
@@ -4418,8 +4123,8 @@
         <v>23.16532271427856</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4435,8 +4140,8 @@
         <v>22.42641280839166</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
       <c r="B61" s="6" t="s">
         <v>35</v>
       </c>
@@ -4450,8 +4155,8 @@
         <v>22.407713161412659</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4467,8 +4172,8 @@
         <v>21.911174801446315</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
       <c r="B63" s="6" t="s">
         <v>36</v>
       </c>
@@ -4482,8 +4187,8 @@
         <v>21.81314299503105</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -4499,8 +4204,8 @@
         <v>21.631737552688165</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
       <c r="B65" s="6" t="s">
         <v>37</v>
       </c>
@@ -4514,8 +4219,8 @@
         <v>22.016907309752469</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4531,8 +4236,8 @@
         <v>21.251170426076811</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
       <c r="B67" s="6" t="s">
         <v>38</v>
       </c>
@@ -4546,8 +4251,8 @@
         <v>21.496227745320169</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -4563,8 +4268,8 @@
         <v>22.575362668923816</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
       <c r="B69" s="6" t="s">
         <v>39</v>
       </c>
@@ -4578,8 +4283,8 @@
         <v>22.680344945491505</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -4595,8 +4300,8 @@
         <v>20.421600053954684</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
       <c r="B71" s="6" t="s">
         <v>40</v>
       </c>
@@ -4610,8 +4315,8 @@
         <v>20.386880749183675</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -4627,8 +4332,8 @@
         <v>22.282171860719217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
       <c r="B73" s="6" t="s">
         <v>41</v>
       </c>
@@ -4642,8 +4347,8 @@
         <v>22.751282185612666</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -4659,8 +4364,8 @@
         <v>19.882800080231604</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
       <c r="B75" s="6" t="s">
         <v>42</v>
       </c>
@@ -4674,8 +4379,8 @@
         <v>20.003601680011791</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -4691,8 +4396,8 @@
         <v>22.923835664012863</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
       <c r="B77" s="6" t="s">
         <v>43</v>
       </c>
@@ -4706,8 +4411,8 @@
         <v>22.892030612825991</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4723,8 +4428,8 @@
         <v>21.447720101212148</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
       <c r="B79" s="6" t="s">
         <v>44</v>
       </c>
@@ -4738,8 +4443,8 @@
         <v>21.558356834772447</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4755,8 +4460,8 @@
         <v>22.34157829333919</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
       <c r="B81" s="6" t="s">
         <v>45</v>
       </c>
@@ -4770,8 +4475,8 @@
         <v>22.563884771341584</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4787,8 +4492,8 @@
         <v>21.800290410090113</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
       <c r="B83" s="6" t="s">
         <v>46</v>
       </c>
@@ -4802,8 +4507,8 @@
         <v>21.847658324151915</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4819,8 +4524,8 @@
         <v>22.018916211217714</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="14"/>
       <c r="B85" s="6" t="s">
         <v>51</v>
       </c>
@@ -4834,8 +4539,8 @@
         <v>22.048515355287449</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4851,8 +4556,8 @@
         <v>22.139245750715119</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="14"/>
       <c r="B87" s="6" t="s">
         <v>52</v>
       </c>
@@ -4866,8 +4571,8 @@
         <v>22.210544492007138</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4883,8 +4588,8 @@
         <v>23.084639097677584</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
       <c r="B89" s="6" t="s">
         <v>53</v>
       </c>
@@ -4898,8 +4603,8 @@
         <v>22.705420506391981</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4915,8 +4620,8 @@
         <v>21.978599418414795</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="14"/>
       <c r="B91" s="6" t="s">
         <v>54</v>
       </c>
@@ -4930,8 +4635,8 @@
         <v>21.900308918596224</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -4947,8 +4652,8 @@
         <v>23.34584200247901</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="14"/>
       <c r="B93" s="6" t="s">
         <v>47</v>
       </c>
@@ -4962,8 +4667,8 @@
         <v>22.866842087065159</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -4979,8 +4684,8 @@
         <v>20.485900060733471</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
       <c r="B95" s="6" t="s">
         <v>48</v>
       </c>
@@ -4994,8 +4699,8 @@
         <v>20.561323284468727</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -5011,8 +4716,8 @@
         <v>21.127339745705939</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="14"/>
       <c r="B97" s="7" t="s">
         <v>49</v>
       </c>
@@ -5026,8 +4731,8 @@
         <v>21.162006936290517</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -5043,8 +4748,8 @@
         <v>20.431738538467066</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="14"/>
       <c r="B99" s="7" t="s">
         <v>50</v>
       </c>
@@ -5060,6 +4765,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:O1"/>
@@ -5076,43 +4818,6 @@
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5123,62 +4828,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27124FE-CED8-4C00-91EB-77550025385F}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView topLeftCell="P19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48:X51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.109375" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" customWidth="1"/>
+    <col min="19" max="19" width="16.36328125" customWidth="1"/>
+    <col min="20" max="20" width="17.36328125" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="H1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="15" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1">
         <f>MIN(N4:N51)</f>
         <v>-3.1392344297642438</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="V1" s="15" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="V1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5220,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5273,8 +4978,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5326,20 +5031,20 @@
         <f>O4-$P$2</f>
         <v>2.0449844560523367</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="13">
         <f>2^-(S4)</f>
         <v>9.1977497960359228E-2</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="13">
         <f>2^-(T4)</f>
         <v>0.24232506508895804</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -5389,20 +5094,20 @@
         <f t="shared" ref="T5:T51" si="6">O5-$P$2</f>
         <v>1.9719883974819226</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="13">
         <f t="shared" ref="W5:W51" si="7">2^-(S5)</f>
         <v>0.32877354484204097</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="13">
         <f t="shared" ref="X5:X51" si="8">2^-(T5)</f>
         <v>0.25490147072334374</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5454,20 +5159,20 @@
         <f t="shared" si="6"/>
         <v>3.5321458034501418</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="13">
         <f t="shared" si="7"/>
         <v>0.13018395478581252</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="13">
         <f t="shared" si="8"/>
         <v>8.6440677895854023E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -5517,20 +5222,20 @@
         <f t="shared" si="6"/>
         <v>1.9267461436507674</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="13">
         <f t="shared" si="7"/>
         <v>7.9075064201747633E-2</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="13">
         <f t="shared" si="8"/>
         <v>0.26302172198233259</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5594,8 +5299,8 @@
         <v>0.14215828602938871</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -5657,8 +5362,8 @@
         <v>0.26057203323730366</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5722,8 +5427,8 @@
         <v>0.13019682421006601</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -5785,8 +5490,8 @@
         <v>0.22878582365764277</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5838,20 +5543,20 @@
         <f t="shared" si="6"/>
         <v>6.8188888804122492</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="13">
         <f t="shared" si="7"/>
         <v>8.3232895490732525E-2</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="13">
         <f t="shared" si="8"/>
         <v>8.857474483486583E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -5901,20 +5606,20 @@
         <f t="shared" si="6"/>
         <v>2.9680172635630235</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="13">
         <f>2^-(S13)</f>
         <v>1.6766139345278863E-3</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="13">
         <f t="shared" si="8"/>
         <v>0.12780203701362841</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -5966,20 +5671,20 @@
         <f t="shared" si="6"/>
         <v>2.6515690371005505</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="13">
         <f t="shared" si="7"/>
         <v>4.6523156327805355E-2</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="13">
         <f t="shared" si="8"/>
         <v>0.15914690028596623</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -6029,20 +5734,20 @@
         <f t="shared" si="6"/>
         <v>3.7801468869614467</v>
       </c>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="13">
         <f t="shared" si="7"/>
         <v>5.7253241926726067E-2</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="13">
         <f t="shared" si="8"/>
         <v>7.2788437874371281E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6106,8 +5811,8 @@
         <v>0.22937478730562835</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -6169,8 +5874,8 @@
         <v>0.1636947557876251</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6234,8 +5939,8 @@
         <v>0.31266896177159142</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
@@ -6297,8 +6002,8 @@
         <v>0.1420545180966141</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6350,20 +6055,20 @@
         <f t="shared" si="6"/>
         <v>2.8094950003500827</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="13">
         <f t="shared" si="7"/>
         <v>5.7498204563361473E-2</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="13">
         <f t="shared" si="8"/>
         <v>0.14264538720619777</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -6413,20 +6118,20 @@
         <f t="shared" si="6"/>
         <v>2.9034942780353781</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="13">
         <f t="shared" si="7"/>
         <v>8.9307775008046403E-2</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="13">
         <f t="shared" si="8"/>
         <v>0.13364758948428365</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6478,20 +6183,20 @@
         <f t="shared" si="6"/>
         <v>4.6224396675284467</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="13">
         <f t="shared" si="7"/>
         <v>9.9072515386376708E-2</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="13">
         <f t="shared" si="8"/>
         <v>4.0598221333419851E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -6541,20 +6246,20 @@
         <f t="shared" si="6"/>
         <v>1.0848532461035241</v>
       </c>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="13">
         <f t="shared" si="7"/>
         <v>0.14859711156560371</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="13">
         <f t="shared" si="8"/>
         <v>0.47144022138569108</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6618,8 +6323,8 @@
         <v>6.0200033314396544E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
@@ -6681,12 +6386,12 @@
         <v>0.25749614365456941</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8">
         <v>17.340248784743309</v>
@@ -6746,10 +6451,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8">
         <v>17.875309195726388</v>
@@ -6809,8 +6514,8 @@
         <v>0.20733702989409078</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6862,20 +6567,20 @@
         <f t="shared" si="6"/>
         <v>1.931900409261889</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="13">
         <f t="shared" si="7"/>
         <v>0.3428341288695535</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="13">
         <f t="shared" si="8"/>
         <v>0.26208371016569948</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -6925,20 +6630,20 @@
         <f t="shared" si="6"/>
         <v>2.2446720230950135</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="13">
         <f t="shared" si="7"/>
         <v>0.3120682733426583</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="13">
         <f t="shared" si="8"/>
         <v>0.21100191196743298</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6990,20 +6695,20 @@
         <f t="shared" si="6"/>
         <v>2.1534212116559743</v>
       </c>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="13">
         <f t="shared" si="7"/>
         <v>0.50503447476404295</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="13">
         <f t="shared" si="8"/>
         <v>0.22477894162017392</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -7053,20 +6758,20 @@
         <f t="shared" si="6"/>
         <v>1.1553285475841406</v>
       </c>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="13">
         <f t="shared" si="7"/>
         <v>0.31441354512022646</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="13">
         <f t="shared" si="8"/>
         <v>0.44896393142061058</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -7130,8 +6835,8 @@
         <v>0.41511019475318944</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
       <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
@@ -7193,8 +6898,8 @@
         <v>0.22278217315775442</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -7258,8 +6963,8 @@
         <v>0.18586773316251759</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
@@ -7321,8 +7026,8 @@
         <v>0.26526926447426796</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -7374,20 +7079,20 @@
         <f t="shared" si="6"/>
         <v>1.4531102119333674</v>
       </c>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="13">
         <f t="shared" si="7"/>
         <v>0.37921458289296633</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="13">
         <f t="shared" si="8"/>
         <v>0.36523319227820955</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
       <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
@@ -7437,20 +7142,20 @@
         <f t="shared" si="6"/>
         <v>1.5477966982700657</v>
       </c>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="13">
         <f t="shared" si="7"/>
         <v>0.67636683151323795</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X37" s="13">
         <f t="shared" si="8"/>
         <v>0.34203202105525921</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -7502,20 +7207,20 @@
         <f t="shared" si="6"/>
         <v>2.2674959768133078</v>
       </c>
-      <c r="V38" s="17" t="s">
+      <c r="V38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W38" s="18">
+      <c r="W38" s="13">
         <f t="shared" si="7"/>
         <v>0.20924141453563877</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="13">
         <f t="shared" si="8"/>
         <v>0.20769005241367891</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
       <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
@@ -7565,20 +7270,20 @@
         <f t="shared" si="6"/>
         <v>3.5778210231405474</v>
       </c>
-      <c r="V39" s="17" t="s">
+      <c r="V39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W39" s="18">
+      <c r="W39" s="13">
         <f t="shared" si="7"/>
         <v>0.79799487825550042</v>
       </c>
-      <c r="X39" s="18">
+      <c r="X39" s="13">
         <f t="shared" si="8"/>
         <v>8.3746863917608536E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -7642,8 +7347,8 @@
         <v>0.53171594367308317</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
@@ -7705,8 +7410,8 @@
         <v>0.49803137770419115</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -7770,8 +7475,8 @@
         <v>0.66951663027764652</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
@@ -7833,8 +7538,8 @@
         <v>0.4538524842551348</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -7886,20 +7591,20 @@
         <f t="shared" si="6"/>
         <v>2.7116666373125611</v>
       </c>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="18">
+      <c r="W44" s="13">
         <f t="shared" si="7"/>
         <v>0.57969607182924798</v>
       </c>
-      <c r="X44" s="18">
+      <c r="X44" s="13">
         <f t="shared" si="8"/>
         <v>0.1526535835816536</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
       <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
@@ -7949,20 +7654,20 @@
         <f t="shared" si="6"/>
         <v>0.92611567294906649</v>
       </c>
-      <c r="V45" s="17" t="s">
+      <c r="V45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="13">
         <f t="shared" si="7"/>
         <v>0.39665740303320701</v>
       </c>
-      <c r="X45" s="18">
+      <c r="X45" s="13">
         <f t="shared" si="8"/>
         <v>0.52627337991682477</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -8014,20 +7719,20 @@
         <f t="shared" si="6"/>
         <v>2.0920274435236337</v>
       </c>
-      <c r="V46" s="17" t="s">
+      <c r="V46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="18">
+      <c r="W46" s="13">
         <f t="shared" si="7"/>
         <v>0.44728853093469034</v>
       </c>
-      <c r="X46" s="18">
+      <c r="X46" s="13">
         <f t="shared" si="8"/>
         <v>0.23455083736264065</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
       <c r="B47" s="6" t="s">
         <v>28</v>
       </c>
@@ -8077,20 +7782,20 @@
         <f t="shared" si="6"/>
         <v>2.1197982008107097</v>
       </c>
-      <c r="V47" s="17" t="s">
+      <c r="V47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="18">
+      <c r="W47" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="X47" s="18">
+      <c r="X47" s="13">
         <f t="shared" si="8"/>
         <v>0.23007909307278099</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -8154,8 +7859,8 @@
         <v>0.16345496671936757</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
       <c r="B49" s="6" t="s">
         <v>29</v>
       </c>
@@ -8217,8 +7922,8 @@
         <v>0.24652231916757306</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -8282,8 +7987,8 @@
         <v>0.17788596075965196</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
       <c r="B51" s="6" t="s">
         <v>30</v>
       </c>
@@ -8345,8 +8050,8 @@
         <v>0.22946274216639923</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -8362,8 +8067,8 @@
         <v>16.89276821270483</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
       <c r="B53" s="6" t="s">
         <v>31</v>
       </c>
@@ -8377,8 +8082,8 @@
         <v>16.993546031280843</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -8394,8 +8099,8 @@
         <v>17.356725212502539</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
       <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
@@ -8409,8 +8114,8 @@
         <v>17.646045765677158</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -8426,8 +8131,8 @@
         <v>18.125643184814884</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
@@ -8441,8 +8146,8 @@
         <v>18.242767962998322</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8458,8 +8163,8 @@
         <v>16.369648034976379</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
       <c r="B59" s="6" t="s">
         <v>34</v>
       </c>
@@ -8473,8 +8178,8 @@
         <v>16.381043749381881</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -8490,8 +8195,8 @@
         <v>15.780126689174104</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
       <c r="B61" s="6" t="s">
         <v>35</v>
       </c>
@@ -8505,8 +8210,8 @@
         <v>15.777534813594091</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -8522,8 +8227,8 @@
         <v>15.347308993307166</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
       <c r="B63" s="6" t="s">
         <v>36</v>
       </c>
@@ -8537,8 +8242,8 @@
         <v>15.703084378998259</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -8554,8 +8259,8 @@
         <v>16.685299567713358</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
       <c r="B65" s="6" t="s">
         <v>37</v>
       </c>
@@ -8569,8 +8274,8 @@
         <v>16.390981231992548</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -8586,8 +8291,8 @@
         <v>15.870383282404873</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
       <c r="B67" s="6" t="s">
         <v>38</v>
       </c>
@@ -8601,8 +8306,8 @@
         <v>15.897638566532144</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -8618,8 +8323,8 @@
         <v>15.757619507420788</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
       <c r="B69" s="6" t="s">
         <v>39</v>
       </c>
@@ -8633,8 +8338,8 @@
         <v>15.579701107143212</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -8650,8 +8355,8 @@
         <v>15.807595410093985</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
       <c r="B71" s="6" t="s">
         <v>40</v>
       </c>
@@ -8665,8 +8370,8 @@
         <v>16.268953597368203</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -8682,8 +8387,8 @@
         <v>16.853773859785548</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
       <c r="B73" s="6" t="s">
         <v>41</v>
       </c>
@@ -8697,8 +8402,8 @@
         <v>16.927952961569368</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -8714,8 +8419,8 @@
         <v>18.271583373354154</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
       <c r="B75" s="6" t="s">
         <v>42</v>
       </c>
@@ -8729,8 +8434,8 @@
         <v>18.593287368590545</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -8746,8 +8451,8 @@
         <v>16.561344104225761</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
       <c r="B77" s="6" t="s">
         <v>43</v>
       </c>
@@ -8761,8 +8466,8 @@
         <v>17.001944678015541</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -8778,8 +8483,8 @@
         <v>16.007346606569268</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
       <c r="B79" s="6" t="s">
         <v>44</v>
       </c>
@@ -8793,8 +8498,8 @@
         <v>16.293556391220427</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8810,8 +8515,8 @@
         <v>15.999386248353641</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
       <c r="B81" s="6" t="s">
         <v>45</v>
       </c>
@@ -8825,8 +8530,8 @@
         <v>15.981828362043622</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8842,8 +8547,8 @@
         <v>16.450641257287977</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
       <c r="B83" s="6" t="s">
         <v>46</v>
       </c>
@@ -8857,8 +8562,8 @@
         <v>16.774247956118145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -8874,8 +8579,8 @@
         <v>18.601474549224108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="14"/>
       <c r="B85" s="6" t="s">
         <v>51</v>
       </c>
@@ -8889,8 +8594,8 @@
         <v>18.575291511871605</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -8906,8 +8611,8 @@
         <v>16.640881835809473</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="14"/>
       <c r="B87" s="6" t="s">
         <v>52</v>
       </c>
@@ -8921,8 +8626,8 @@
         <v>16.452321782946996</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -8938,8 +8643,8 @@
         <v>18.769084994109448</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
       <c r="B89" s="6" t="s">
         <v>53</v>
       </c>
@@ -8953,8 +8658,8 @@
         <v>18.101217035019474</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -8970,8 +8675,8 @@
         <v>18.990690209396732</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="14"/>
       <c r="B91" s="6" t="s">
         <v>54</v>
       </c>
@@ -8985,8 +8690,8 @@
         <v>19.066852941848488</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -9002,8 +8707,8 @@
         <v>18.664913016183078</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="14"/>
       <c r="B93" s="6" t="s">
         <v>47</v>
       </c>
@@ -9017,8 +8722,8 @@
         <v>18.676797486724809</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9034,8 +8739,8 @@
         <v>16.81921376659988</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
       <c r="B95" s="6" t="s">
         <v>48</v>
       </c>
@@ -9049,8 +8754,8 @@
         <v>16.839460179494651</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -9066,8 +8771,8 @@
         <v>17.714184471271587</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="14"/>
       <c r="B97" s="7" t="s">
         <v>49</v>
       </c>
@@ -9081,8 +8786,8 @@
         <v>17.860780001295808</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -9098,8 +8803,8 @@
         <v>16.067155788927842</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="14"/>
       <c r="B99" s="7" t="s">
         <v>50</v>
       </c>
@@ -9115,6 +8820,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:O1"/>
@@ -9131,43 +8873,6 @@
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
